--- a/NH_HealthCost_data/43239 Upper Gastrointestinal Endoscopy, with biopsy.xlsx
+++ b/NH_HealthCost_data/43239 Upper Gastrointestinal Endoscopy, with biopsy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teresarokos/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/teresarokos/Desktop/Thesis Research/Thesis_Hospital_Costs/NH_HealthCost_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B69230C6-896B-514C-8921-2593D3CA7C12}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B2E8C00-81BF-624E-8584-213D3206B560}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="4" xr2:uid="{908DF8FC-DA0E-9142-97C3-2981526D7DA1}"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="28040" windowHeight="16520" activeTab="4" xr2:uid="{908DF8FC-DA0E-9142-97C3-2981526D7DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Anthem NH" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="28">
   <si>
     <t>Provider Name Compare Selected</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t> MEDIUM</t>
-  </si>
-  <si>
-    <t>Compare Elliot One-Day Surgery CenterElliot One-Day Surgery Center</t>
-  </si>
-  <si>
-    <t>Compare Bedford Ambulatory Surgical CenterBedford Ambulatory Surgical Center</t>
   </si>
   <si>
     <t>Compare Lakes Region General HealthcareLakes Region General Healthcare</t>
@@ -79,13 +73,46 @@
     <t>What you Will Pay </t>
   </si>
   <si>
-    <t>Compare Concord Ambulatory Surgery CenterConcord Ambulatory Surgery Center</t>
-  </si>
-  <si>
     <t>Compare Concord HospitalConcord Hospital</t>
   </si>
   <si>
-    <t>Compare Androscoggin Valley HospitalAndroscoggin Valley Hospital</t>
+    <t>Compare Steward Medical GroupSteward Medical Group</t>
+  </si>
+  <si>
+    <t>Compare Veterans Administration Medical CenterVeterans Administration Medical Center</t>
+  </si>
+  <si>
+    <t>Compare Parkland Medical CenterParkland Medical Center</t>
+  </si>
+  <si>
+    <t>Compare York HospitalYork Hospital</t>
+  </si>
+  <si>
+    <t>Compare Portsmouth Regional HospitalPortsmouth Regional Hospital</t>
+  </si>
+  <si>
+    <t>Compare Southern NH Medical CenterSouthern NH Medical Center</t>
+  </si>
+  <si>
+    <t>Compare St. Joseph HospitalSt. Joseph Hospital</t>
+  </si>
+  <si>
+    <t>Compare Anna Jaques HospitalAnna Jaques Hospital</t>
+  </si>
+  <si>
+    <t>Compare Frisbie Memorial HospitalFrisbie Memorial Hospital</t>
+  </si>
+  <si>
+    <t>Compare Catholic Medical CenterCatholic Medical Center</t>
+  </si>
+  <si>
+    <t>Compare Cheshire Medical CenterCheshire Medical Center</t>
+  </si>
+  <si>
+    <t>Compare Lowell General HospitalLowell General Hospital</t>
+  </si>
+  <si>
+    <t>Compare Lawrence General HospitalLawrence General Hospital</t>
   </si>
 </sst>
 </file>
@@ -6242,6 +6269,1062 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="AutoShape 1" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904DC182-1770-D247-89DE-C7020C6F755B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9918700" y="228600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="AutoShape 2" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{879B4308-0264-194F-A6D1-6D4FECEB8A2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10744200" y="228600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="AutoShape 3" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95B88A30-0619-2049-BC59-4EFEA96B0369}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9918700" y="520700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="AutoShape 4" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B82A7D20-C0A1-E846-AFAD-E289061B60F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10744200" y="520700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="AutoShape 5" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C4CAD1-3039-AC4A-ACA9-8AA9439A235E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9918700" y="812800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="AutoShape 6" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A24F726-D76C-9F47-9FDC-DEA695E95EF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10744200" y="812800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="AutoShape 7" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37637CE3-77D9-3E49-B2F3-A4C21D94D4A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9918700" y="1104900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="AutoShape 8" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D021D252-5689-004E-B9F4-BB6580C76BA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10744200" y="1104900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="AutoShape 9" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44A8C81C-08B8-FB45-BDBC-930C18EDF77F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9918700" y="1397000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="AutoShape 10" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FCD98DF-326D-F94C-86F1-538C8C540606}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10744200" y="1397000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="AutoShape 11" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C233A0E5-BEEC-C841-B3BA-B6312124B47A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9918700" y="1689100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="AutoShape 12" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54357C5A-5776-2245-B7B1-6F2AF1338DC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10744200" y="1689100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="AutoShape 13" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8110C6C9-6F53-7C44-862F-B37AC2B8EE7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9918700" y="1981200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="AutoShape 14" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630D05F7-F7AD-5D4F-8B69-68FE8C60604E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10744200" y="1981200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="AutoShape 15" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97189DF3-199A-1845-AFEB-92A4C8C27FB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9918700" y="2273300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="AutoShape 16" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DFB982-7E80-D147-AC66-E37549236DCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10744200" y="2273300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="AutoShape 17" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F78B9B47-1851-344F-BF82-66F84790C2C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9918700" y="2565400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="AutoShape 18" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FB01518-0ABF-D04B-B0F9-FEC8573BD292}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10744200" y="2565400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="AutoShape 19" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D190A27-17F7-C848-8E03-A962D4862A7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9918700" y="2857500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="AutoShape 20" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2559FC1C-7266-0B4B-A096-83EAE5574625}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10744200" y="2857500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="AutoShape 21" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70BE7AFD-9C77-B54A-8B94-1AC7DAE114EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9918700" y="3149600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="AutoShape 22" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257E615A-6B64-8D4A-91FE-D133725AFAD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10744200" y="3149600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10375,6 +11458,1446 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 1" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6979E8CA-02E5-114E-8865-A83763CF09D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="228600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D175A409-57B3-3047-9634-9D0F5370B19B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="228600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 3" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC18B275-87DE-0245-81F2-ACFA3CD5B74C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="520700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 4" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ECCCA58-C10B-F74E-BC93-6F8CAC168CA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="520700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 5" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535B0A55-7193-8F4F-B8DC-CC5299EBA092}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="812800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 6" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38E19D91-9FDA-2844-ABFF-55427F74CE5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="812800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 7" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A6E2EBD-411D-D543-BD7E-AE4EA6CB85D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="1104900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 8" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0660B07D-FF8A-9B47-93CD-259553D4AB1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="1104900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 9" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2CFBE9-C45D-5241-96DB-4A3B9D8B3EDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="1397000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 10" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20988673-AF46-B447-A36C-5CE2331B1461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="1397000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 11" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D966F7A-2C8A-8C48-89F9-2562142C2058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="1689100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 12" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3006A2B-1B0C-E24C-9784-114D4781E82C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="1689100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 13" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CDAB2A-4AC5-EB4A-8FAF-7A6989657C45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="1981200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 14" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F40233-3B9F-D64F-AEAD-5BA1262173B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="1981200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 15" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7171C50-06A5-B847-B448-D3E09A43BAAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="2273300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 16" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95DEA33-6969-4345-BBE6-57E15CABD7C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="2273300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="AutoShape 17" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6767B8E2-3271-864A-AE81-50BB5C67E3ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="2565400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 18" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A66F11-B2F6-2A47-BCBF-193E8015A5C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="2565400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 19" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0975395-0EED-2E47-A8E5-6C7F8349DD39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="2857500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 20" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86B0AA97-1966-C349-92DF-D588CA64418A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="2857500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 21" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2178B675-2760-0A4C-88DF-8D422EC4E32D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="3149600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="AutoShape 22" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEC4D87-B879-0B41-9F98-BC035DD18E83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="3149600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="AutoShape 23" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6ADD3475-B994-7345-8652-C41AD7176C7A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="3441700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="AutoShape 24" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB9ADEAC-B69F-DE49-83CA-413A638D4A80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="3441700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="AutoShape 25" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB587BC-5C22-0745-AFB6-B733722C7914}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="3733800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="AutoShape 26" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E337BB9A-34F9-9840-BD9E-AB602AB77CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="3733800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="AutoShape 27" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D31C5EA1-067A-E342-AAD7-0770F29D1C9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="4025900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="AutoShape 28" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F44D7012-3297-E842-941D-E3326009D2B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="4025900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="AutoShape 29" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF7518D-C94B-9841-8675-DB339B12631A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10477500" y="4318000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="AutoShape 30" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7813E7E0-25A0-9D46-B114-712E91F05BA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11303000" y="4318000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -16524,6 +19047,1542 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 1" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC23E115-6124-644A-9D8D-D552767083D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="228600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 2" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5757E454-6AA3-ED45-93B1-2D1026964E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="228600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="AutoShape 3" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2F35758-41A0-7E42-B25E-089471D42164}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="520700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 4" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84CFB3D6-189C-EC48-881A-3767BEE0AB46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="520700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 5" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F021BDCD-E339-884D-A8D9-E0E92B52D9DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="812800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 6" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F86FB1C-DCC4-C54D-AD31-18A7A56F5AFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="812800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 7" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB95A055-7781-E541-AFB9-8D84536BF20E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="1104900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="AutoShape 8" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{706F4FAA-0AE6-3741-8FF3-4719E15965D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="1104900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="AutoShape 9" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81534AC6-7354-D845-89CD-FCC2CE130DC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="1397000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="AutoShape 10" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8631FCA-DBBA-6A4B-A78C-E591998F270A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="1397000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="AutoShape 11" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFB23C1-82EB-0043-82DE-6E9189EDBFEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="1689100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="AutoShape 12" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61559801-B2E7-DB47-B72A-5ED8BC78A940}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="1689100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="AutoShape 13" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41832677-D2F2-DA47-872D-F426F6984A98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="1981200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="AutoShape 14" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84678A1-08B8-114E-BB2E-EA10901878E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="1981200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="AutoShape 15" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AD1D40F-C682-D14C-A003-8980B38AE732}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="2273300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="AutoShape 16" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B646285D-A3F3-804F-8B36-C5B415E43EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="2273300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="AutoShape 17" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{927C2471-4BDE-554E-B95A-A6F8AA7ABE80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="2565400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="AutoShape 18" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17021FF3-03D7-E343-A39E-739BF7A28086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="2565400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="AutoShape 19" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2D4319-2108-084A-97D4-A16B0CA91CB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="2857500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="AutoShape 20" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A0F0C8-02B2-E741-8621-C5257BDD3DE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="2857500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="AutoShape 21" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE7335CB-EE33-B644-BCCC-75860E4BE492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="3149600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="AutoShape 22" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{517CA4B9-A74E-A844-819D-FC80D9900702}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="3149600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="AutoShape 23" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F164C621-687A-EB45-8F09-424F750CFDE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="3441700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="AutoShape 24" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{021D6508-9FB3-FD49-BCEE-E3333333A048}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="3441700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="AutoShape 25" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FB0274-4B36-9146-A087-20CF7C090F77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="3733800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="AutoShape 26" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E16290BB-52E2-8E46-B097-480BDC58E6FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="3733800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="AutoShape 27" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91492DAC-7F4A-CA43-88CC-1B3E7E859891}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="4025900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="AutoShape 28" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17672D58-3B2D-D54E-8467-5A3B278905EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="4025900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="AutoShape 29" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A66AEC69-0129-7F49-8AC0-DD2D1306240F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="4318000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="AutoShape 30" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB37E8F-C269-3942-B980-874ED9F3DBBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="4318000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="AutoShape 31" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87600EE8-D9BF-B646-810B-A1ED34D325BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9779000" y="4610100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="AutoShape 32" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AEFA92D-32E1-974A-9E5B-EC6C84C6DE4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10604500" y="4610100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19025,6 +23084,1158 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 1" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BFA9D80-98EB-2B4F-A24E-7CE16CF3BE9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9613900" y="228600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14DFFFFB-F871-1E44-805B-5C1C6B2CFE3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10439400" y="228600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 3" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85CF2640-671E-D14B-8AAD-08677F0B8997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9613900" y="520700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 4" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FB29E34-A5F3-CC4B-B6D2-B68FF4533D74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10439400" y="520700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 5" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BEDC702-8737-784B-8229-214C8A3BA3A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9613900" y="812800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 6" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570BC9E6-C6C8-EA48-829B-9B01A6D114D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10439400" y="812800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 7" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC91B852-1D7E-3E43-A11C-EC963D4D5A54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9613900" y="1104900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 8" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AB3851-9932-894B-8466-D8DC15B357A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10439400" y="1104900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 9" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5379D3C6-D38B-C84F-A33C-0428AF32C618}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9613900" y="1397000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 10" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD49CEE4-C113-F149-9E3A-C0D482B0153D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10439400" y="1397000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 11" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52BAD1EC-7E00-2443-ABD3-64709561E3E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9613900" y="1689100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 12" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9A4787D-2397-CE41-B74E-820A29579C96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10439400" y="1689100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 13" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFCCD97E-78BE-754F-AA11-9E164A8117FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9613900" y="1981200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 14" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C07D82E4-77A7-A749-81B9-39765531DDA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10439400" y="1981200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 15" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A088F7-CAF8-AD4F-ABCF-D23B5D9557DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9613900" y="2273300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 16" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{897CBAFF-14D3-A044-A7D5-02F0BEB1FBAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10439400" y="2273300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 17" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/below.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{288B48B1-9445-0D4B-93DE-C1DAC228C029}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9613900" y="2565400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 18" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1F6AAC-4E21-894B-B4AA-F5CD4F1649B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10439400" y="2565400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="AutoShape 19" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2176B0F2-157E-7140-8D39-24831C313A81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9613900" y="2857500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 20" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A8E72DD-E015-3543-B365-83016DC5FD1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10439400" y="2857500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 21" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6582C1EB-287E-0741-8D53-41D22FDBC842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9613900" y="3149600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="AutoShape 22" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC19231-F265-9540-9F25-7F90DFACDFD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10439400" y="3149600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="AutoShape 23" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{909470DB-7846-BE44-948C-894C581907AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9613900" y="3441700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="AutoShape 24" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE935E5-7F4E-264D-B960-1335E486FE85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10439400" y="3441700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24387,6 +29598,918 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="10972800" y="2857500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1599D2BB-A6D9-A749-A131-591C61438097}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="228600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60966707-71ED-A642-811F-AFEDDB01A43A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="520700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6043FC64-1947-AB41-BB10-F052256EBFD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="812800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="AutoShape 4" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9275E045-401E-7743-8A8A-1CFFC548160F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="1104900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="AutoShape 5" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{545A8C17-B8C9-0C49-A3E9-1E27BA93ACF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="1397000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 6" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8E61861-6245-5F4E-869F-3CD85D94EE4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="1689100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 7" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F1BDB01-9ED6-0A49-9B3F-39AF0589F7D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="1981200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 8" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95E19660-25DA-2E4F-88E4-C0AB369D11D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="2273300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 9" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDFCA9EA-5D4B-414C-802B-AF3F5A8D77FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="2565400"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 10" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2CC5D9-44F8-4248-B284-0BA8BBA96796}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="2857500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 11" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA8F64F-C634-8643-950D-AA3B8D8941F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="3149600"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 12" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F018E26-2E29-FC42-854E-3B59CB7E675D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="3441700"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 13" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEA422C-2F3F-A645-BFE2-3A0CE099C12E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="3733800"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 14" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD5C69A-3CCB-184C-8A32-034C11458D78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="4025900"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="AutoShape 15" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89814DD9-3063-C743-B4D3-B18772A4746E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="4318000"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="AutoShape 16" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1249D4AE-0105-A54D-BA62-917251FB0D07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="4610100"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="AutoShape 17" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/above.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919D4F86-5FDC-8647-B8A0-3F4185704F0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="4902200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="AutoShape 18" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3D38F4-C901-0844-BC2B-0C7B4F7BDB9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="5194300"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="AutoShape 19" descr="/var/folders/04/d75g31ns2bjbpvkkyj7h12sc0000gn/T/com.microsoft.Excel/WebArchiveCopyPasteTempFiles/average.svg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEC6C128-9731-7B45-9C9F-D43EA6FD93FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10972800" y="5486400"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -24709,7 +30832,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D8"/>
+      <selection sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24734,55 +30857,55 @@
     </row>
     <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5">
-        <v>2622</v>
+        <v>1962</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5">
-        <v>2738</v>
+        <v>2230</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5">
-        <v>2991</v>
+        <v>2432</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>3067</v>
+        <v>3219</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>6</v>
@@ -24790,69 +30913,101 @@
     </row>
     <row r="6" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5">
-        <v>3401</v>
+        <v>3258</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5">
-        <v>4412</v>
+        <v>4051</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="5">
-        <v>4488</v>
+        <v>4061</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4140</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4234</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4710</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5636</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -24946,17 +31101,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://nhhealthcost.nh.gov/costs/medical/result/tonsillectomy-with-adenoidectomy-outpatient?carrier=2&amp;plan_type=2" xr:uid="{34B9E565-15BF-9C48-A111-800467C6A92A}"/>
-    <hyperlink ref="A2" r:id="rId2" location="costs" display="https://nhhealthcost.nh.gov/provider/bedford-ambulatory-surgical-center?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{2FE85169-E2C7-164D-BFE2-E4B77334E663}"/>
-    <hyperlink ref="A3" r:id="rId3" location="costs" display="https://nhhealthcost.nh.gov/provider/concord-ambulatory-surgery-center?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{1D727087-F206-6F47-BD7F-39D776D574D7}"/>
-    <hyperlink ref="A4" r:id="rId4" location="costs" display="https://nhhealthcost.nh.gov/provider/lakes-region-general-healthcare?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{A75D92CB-4ECE-FC42-A2D1-11AC4A4BA79B}"/>
-    <hyperlink ref="A5" r:id="rId5" location="costs" display="https://nhhealthcost.nh.gov/provider/elliot-one-day-surgery-center?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{01B38E88-48AC-354E-BEA0-17B4583FD802}"/>
-    <hyperlink ref="A6" r:id="rId6" location="costs" display="https://nhhealthcost.nh.gov/provider/elliot-hospital?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{024B6FBB-FC72-724B-880A-E29A98049D0B}"/>
-    <hyperlink ref="A7" r:id="rId7" location="costs" display="https://nhhealthcost.nh.gov/provider/mary-hitchcock-memorial-hospital?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{D725E60B-7527-544E-AD8E-2DF994CAAD9E}"/>
-    <hyperlink ref="A8" r:id="rId8" location="costs" display="https://nhhealthcost.nh.gov/provider/concord-hospital?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{6A8D66A0-EA2F-4948-B4AC-6FA29C86ECAD}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://nhhealthcost.nh.gov/costs/medical/result/upper-gastrointestinal-endoscopy-with-biopsy?carrier=2&amp;plan_type=2" xr:uid="{9036BAB5-EECB-1445-9129-29B55623446B}"/>
+    <hyperlink ref="A2" r:id="rId2" location="costs" display="https://nhhealthcost.nh.gov/provider/concord-hospital?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{99214C6F-F1B5-F54C-8EFF-63C59FA6BC53}"/>
+    <hyperlink ref="A3" r:id="rId3" location="costs" display="https://nhhealthcost.nh.gov/provider/steward-medical-group?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{3E42F4B4-39A6-9D49-9534-CBC2061B3A8F}"/>
+    <hyperlink ref="A4" r:id="rId4" location="costs" display="https://nhhealthcost.nh.gov/provider/veterans-administration-medical-center?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{75777DF2-B287-EB44-A2A2-9B48D345B02E}"/>
+    <hyperlink ref="A5" r:id="rId5" location="costs" display="https://nhhealthcost.nh.gov/provider/mary-hitchcock-memorial-hospital?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{E50506F5-A57C-D745-97B8-2E6D1E9BD04C}"/>
+    <hyperlink ref="A6" r:id="rId6" location="costs" display="https://nhhealthcost.nh.gov/provider/parkland-medical-center?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{1B0E18C2-8A17-2742-9B78-D251C3EA6AA0}"/>
+    <hyperlink ref="A7" r:id="rId7" location="costs" display="https://nhhealthcost.nh.gov/provider/exeter-hospital?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{126132E9-2EC1-5E4E-948A-A86909A7B030}"/>
+    <hyperlink ref="A8" r:id="rId8" location="costs" display="https://nhhealthcost.nh.gov/provider/york-hospital?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{6CD78BD2-6E9C-B044-965E-217FC29C3642}"/>
+    <hyperlink ref="A9" r:id="rId9" location="costs" display="https://nhhealthcost.nh.gov/provider/portsmouth-regional-hospital?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{CB63D87E-22B8-7745-91E3-E5163C7615F3}"/>
+    <hyperlink ref="A10" r:id="rId10" location="costs" display="https://nhhealthcost.nh.gov/provider/southern-nh-medical-center?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{D5AEF131-BB63-F74C-84FD-3A26EAD6E43C}"/>
+    <hyperlink ref="A11" r:id="rId11" location="costs" display="https://nhhealthcost.nh.gov/provider/elliot-hospital?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{66C4B149-38E5-5F45-9F09-6EDFDDA476F5}"/>
+    <hyperlink ref="A12" r:id="rId12" location="costs" display="https://nhhealthcost.nh.gov/provider/st-joseph-hospital?carrier=2&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{52105EA7-D123-0B42-B8CE-07BBF9D07B85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -24965,7 +31124,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24989,94 +31148,214 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="5">
+        <v>2259</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2283</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2411</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2732</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2746</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2848</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3347</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3371</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3652</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4024</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4078</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5">
+        <v>4414</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
+        <v>4505</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5998</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5">
+        <v>6125</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -25164,10 +31443,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://nhhealthcost.nh.gov/costs/medical/result/arthroscopic-shoulder-surgery?carrier=4&amp;plan_type=2" xr:uid="{5ADE12E5-F918-6B47-9C39-28E79EC698E4}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://nhhealthcost.nh.gov/costs/medical/result/upper-gastrointestinal-endoscopy-with-biopsy?carrier=4&amp;plan_type=2" xr:uid="{118BC96E-9A81-F548-8098-C8832E5DD5F0}"/>
+    <hyperlink ref="A2" r:id="rId2" location="costs" display="https://nhhealthcost.nh.gov/provider/concord-hospital?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{02BD89D3-F531-1F4B-A569-4D13870C46FA}"/>
+    <hyperlink ref="A3" r:id="rId3" location="costs" display="https://nhhealthcost.nh.gov/provider/anna-jaques-hospital?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{B02B5864-079A-5F4E-AC67-FD8EF7B08A64}"/>
+    <hyperlink ref="A4" r:id="rId4" location="costs" display="https://nhhealthcost.nh.gov/provider/lakes-region-general-healthcare?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{A6D3E803-8084-4345-A618-8F45035D64CB}"/>
+    <hyperlink ref="A5" r:id="rId5" location="costs" display="https://nhhealthcost.nh.gov/provider/frisbie-memorial-hospital?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{7058AA24-71CC-DA42-874D-7721BDAD83C2}"/>
+    <hyperlink ref="A6" r:id="rId6" location="costs" display="https://nhhealthcost.nh.gov/provider/catholic-medical-center?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{256B598D-A9AE-944E-8CC8-0A5E606ABD4E}"/>
+    <hyperlink ref="A7" r:id="rId7" location="costs" display="https://nhhealthcost.nh.gov/provider/cheshire-medical-center?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{9A6B07D6-472A-0445-9271-61A483CBE917}"/>
+    <hyperlink ref="A8" r:id="rId8" location="costs" display="https://nhhealthcost.nh.gov/provider/elliot-hospital?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{02483146-85CF-F943-984C-7883A6B3B61F}"/>
+    <hyperlink ref="A9" r:id="rId9" location="costs" display="https://nhhealthcost.nh.gov/provider/southern-nh-medical-center?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{8A4DC410-A3D3-8241-A44D-59CA995E338E}"/>
+    <hyperlink ref="A10" r:id="rId10" location="costs" display="https://nhhealthcost.nh.gov/provider/wentworth-douglass-hospital?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{2730E3D4-6F43-F643-B9C6-93BCD3EEF451}"/>
+    <hyperlink ref="A11" r:id="rId11" location="costs" display="https://nhhealthcost.nh.gov/provider/mary-hitchcock-memorial-hospital?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{4B06E752-BAB8-9C4D-A871-C9086D94A061}"/>
+    <hyperlink ref="A12" r:id="rId12" location="costs" display="https://nhhealthcost.nh.gov/provider/parkland-medical-center?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{ACEDDE4F-B6A2-FD4C-9BE0-2C3925C7EF0A}"/>
+    <hyperlink ref="A13" r:id="rId13" location="costs" display="https://nhhealthcost.nh.gov/provider/exeter-hospital?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{8D623A14-CC84-984C-9FA3-7EA81D7957B6}"/>
+    <hyperlink ref="A14" r:id="rId14" location="costs" display="https://nhhealthcost.nh.gov/provider/york-hospital?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{B086C82D-0875-AE45-9031-057DB47F66DE}"/>
+    <hyperlink ref="A15" r:id="rId15" location="costs" display="https://nhhealthcost.nh.gov/provider/st-joseph-hospital?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{BB7B9EED-D1EC-134B-AE65-12352367EBCA}"/>
+    <hyperlink ref="A16" r:id="rId16" location="costs" display="https://nhhealthcost.nh.gov/provider/portsmouth-regional-hospital?carrier=4&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{0F42C456-549B-4F48-9CFD-2C627000F674}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -25176,7 +31470,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D6"/>
+      <selection sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25201,10 +31495,10 @@
     </row>
     <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5">
-        <v>4385</v>
+        <v>1691</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -25215,27 +31509,27 @@
     </row>
     <row r="3" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B3" s="5">
-        <v>5136</v>
+        <v>2290</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>6760</v>
+        <v>2372</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>6</v>
@@ -25243,97 +31537,185 @@
     </row>
     <row r="5" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
-        <v>9319</v>
+        <v>2393</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5">
-        <v>11221</v>
+        <v>2583</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5">
+        <v>2632</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2788</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="5">
+        <v>2798</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="5">
+        <v>3026</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3050</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5">
+        <v>3058</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3473</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>3606</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5">
+        <v>3622</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5">
+        <v>3764</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4543</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -25481,15 +31863,26 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://nhhealthcost.nh.gov/costs/medical/result/tonsillectomy-with-adenoidectomy-outpatient?carrier=6&amp;plan_type=2" xr:uid="{94B9E6C9-36E1-8C4D-8818-B01B3C320799}"/>
-    <hyperlink ref="A2" r:id="rId2" location="costs" display="https://nhhealthcost.nh.gov/provider/elliot-one-day-surgery-center?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{01900F91-2CD1-8F4D-B3FE-0D1921EAAA6F}"/>
-    <hyperlink ref="A3" r:id="rId3" location="costs" display="https://nhhealthcost.nh.gov/provider/bedford-ambulatory-surgical-center?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{881D9F10-2F8B-1046-A590-4016B63736A0}"/>
-    <hyperlink ref="A4" r:id="rId4" location="costs" display="https://nhhealthcost.nh.gov/provider/exeter-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{6EAD2622-43B1-B840-9D6E-139C4E8B7705}"/>
-    <hyperlink ref="A5" r:id="rId5" location="costs" display="https://nhhealthcost.nh.gov/provider/elliot-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{4960D69C-2115-3F4B-9AE8-B1FC23F63AEE}"/>
-    <hyperlink ref="A6" r:id="rId6" location="costs" display="https://nhhealthcost.nh.gov/provider/androscoggin-valley-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{CDC245FF-520E-C344-A24B-04A58A3A08A7}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://nhhealthcost.nh.gov/costs/medical/result/upper-gastrointestinal-endoscopy-with-biopsy?carrier=6&amp;plan_type=2" xr:uid="{D27EB083-1A64-9241-BDEF-46B16AC6253B}"/>
+    <hyperlink ref="A2" r:id="rId2" location="costs" display="https://nhhealthcost.nh.gov/provider/parkland-medical-center?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{D66A376A-D9C8-0B45-A3F0-D61ABA9F01EC}"/>
+    <hyperlink ref="A3" r:id="rId3" location="costs" display="https://nhhealthcost.nh.gov/provider/anna-jaques-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{28FADD6A-15D9-F945-9D1C-DA7867613C23}"/>
+    <hyperlink ref="A4" r:id="rId4" location="costs" display="https://nhhealthcost.nh.gov/provider/steward-medical-group?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{47B92ADF-CECB-7348-B01D-B5C55C2CBD1A}"/>
+    <hyperlink ref="A5" r:id="rId5" location="costs" display="https://nhhealthcost.nh.gov/provider/mary-hitchcock-memorial-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{08720169-AD5E-A741-985E-07ABFCFB1781}"/>
+    <hyperlink ref="A6" r:id="rId6" location="costs" display="https://nhhealthcost.nh.gov/provider/cheshire-medical-center?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{86E772CC-0A33-5546-8620-719E848C1CCD}"/>
+    <hyperlink ref="A7" r:id="rId7" location="costs" display="https://nhhealthcost.nh.gov/provider/st-joseph-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{EC8FE8AC-E051-5D45-98BE-9D079F829F7F}"/>
+    <hyperlink ref="A8" r:id="rId8" location="costs" display="https://nhhealthcost.nh.gov/provider/catholic-medical-center?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{F10AE418-26CA-DF4D-A781-AE1944756A35}"/>
+    <hyperlink ref="A9" r:id="rId9" location="costs" display="https://nhhealthcost.nh.gov/provider/concord-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{F4090BB6-C724-4248-A514-8D781A7C9746}"/>
+    <hyperlink ref="A10" r:id="rId10" location="costs" display="https://nhhealthcost.nh.gov/provider/wentworth-douglass-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{6DF9113D-5EA5-EA4F-B748-EBA3A59F8CFE}"/>
+    <hyperlink ref="A11" r:id="rId11" location="costs" display="https://nhhealthcost.nh.gov/provider/southern-nh-medical-center?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{46F15C4F-AE8A-4E43-BAFD-8667E0E50C69}"/>
+    <hyperlink ref="A12" r:id="rId12" location="costs" display="https://nhhealthcost.nh.gov/provider/lowell-general-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{27BAF99C-2840-884B-B86B-9747260D9C6C}"/>
+    <hyperlink ref="A13" r:id="rId13" location="costs" display="https://nhhealthcost.nh.gov/provider/elliot-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{38778D37-C875-8B4A-B22E-E2599DC8AA59}"/>
+    <hyperlink ref="A14" r:id="rId14" location="costs" display="https://nhhealthcost.nh.gov/provider/exeter-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{C5812D1D-BED1-7349-9DAB-3401DAA42D31}"/>
+    <hyperlink ref="A15" r:id="rId15" location="costs" display="https://nhhealthcost.nh.gov/provider/frisbie-memorial-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{A76FBEA5-FAFF-F241-BDBA-F3D7F6641136}"/>
+    <hyperlink ref="A16" r:id="rId16" location="costs" display="https://nhhealthcost.nh.gov/provider/york-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{77178C1C-D4C4-F849-8A9B-B7A076D3175A}"/>
+    <hyperlink ref="A17" r:id="rId17" location="costs" display="https://nhhealthcost.nh.gov/provider/portsmouth-regional-hospital?carrier=6&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{57FF812C-4F8E-3444-A640-3274BE859998}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -25498,7 +31891,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25522,76 +31915,172 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5">
+        <v>1867</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5">
+        <v>2649</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2838</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2955</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5">
+        <v>3181</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3456</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5">
+        <v>3842</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4028</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4071</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>4253</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5388</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5">
+        <v>5677</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="23" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -25649,10 +32138,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://nhhealthcost.nh.gov/costs/medical/result/arthroscopic-shoulder-surgery?carrier=8&amp;plan_type=2" xr:uid="{FB4F3E10-D420-BD42-A0C5-8380D1C99649}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://nhhealthcost.nh.gov/costs/medical/result/upper-gastrointestinal-endoscopy-with-biopsy?carrier=8&amp;plan_type=2" xr:uid="{695C3ABF-4CD1-9242-97F0-1397D76B58BD}"/>
+    <hyperlink ref="A2" r:id="rId2" location="costs" display="https://nhhealthcost.nh.gov/provider/lawrence-general-hospital?carrier=8&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{06B28631-78ED-CB46-99D7-15B4D0595E77}"/>
+    <hyperlink ref="A3" r:id="rId3" location="costs" display="https://nhhealthcost.nh.gov/provider/cheshire-medical-center?carrier=8&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{CD7BC600-C7D0-584F-9954-D6191677778F}"/>
+    <hyperlink ref="A4" r:id="rId4" location="costs" display="https://nhhealthcost.nh.gov/provider/steward-medical-group?carrier=8&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{AF930311-0911-0E4F-8E2A-7A56E980793B}"/>
+    <hyperlink ref="A5" r:id="rId5" location="costs" display="https://nhhealthcost.nh.gov/provider/parkland-medical-center?carrier=8&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{D663B90B-706D-5349-BE00-2486D927A6E2}"/>
+    <hyperlink ref="A6" r:id="rId6" location="costs" display="https://nhhealthcost.nh.gov/provider/southern-nh-medical-center?carrier=8&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{5FA49589-93C3-194E-B433-DD74EDC891D4}"/>
+    <hyperlink ref="A7" r:id="rId7" location="costs" display="https://nhhealthcost.nh.gov/provider/wentworth-douglass-hospital?carrier=8&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{1FB51C38-303B-4E40-8DE6-3E1E85DC582C}"/>
+    <hyperlink ref="A8" r:id="rId8" location="costs" display="https://nhhealthcost.nh.gov/provider/exeter-hospital?carrier=8&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{54973756-36A9-9C43-9B83-1955CA19ECA0}"/>
+    <hyperlink ref="A9" r:id="rId9" location="costs" display="https://nhhealthcost.nh.gov/provider/elliot-hospital?carrier=8&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{B51ADE72-E2D1-1D48-836F-3E0866DBB076}"/>
+    <hyperlink ref="A10" r:id="rId10" location="costs" display="https://nhhealthcost.nh.gov/provider/catholic-medical-center?carrier=8&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{1767C60A-218C-0B40-8A52-1971C01EF6DA}"/>
+    <hyperlink ref="A11" r:id="rId11" location="costs" display="https://nhhealthcost.nh.gov/provider/mary-hitchcock-memorial-hospital?carrier=8&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{B335D4A8-9A66-FC43-8872-5C889CA9355A}"/>
+    <hyperlink ref="A12" r:id="rId12" location="costs" display="https://nhhealthcost.nh.gov/provider/st-joseph-hospital?carrier=8&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{38C5F7D4-8B28-BB43-A7F3-C1304725F824}"/>
+    <hyperlink ref="A13" r:id="rId13" location="costs" display="https://nhhealthcost.nh.gov/provider/portsmouth-regional-hospital?carrier=8&amp;plan_type=2&amp;cost_type=medical - costs" xr:uid="{C3AC5642-0205-FF45-8B83-57ACE5D29506}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId14"/>
 </worksheet>
 </file>
 
@@ -25661,7 +32162,7 @@
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E11"/>
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25678,10 +32179,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>3</v>
@@ -25689,16 +32190,16 @@
     </row>
     <row r="2" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B2" s="5">
-        <v>6575</v>
+        <v>4331</v>
       </c>
       <c r="C2" s="7">
         <v>0</v>
       </c>
       <c r="D2" s="8">
-        <v>6575</v>
+        <v>4331</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
@@ -25706,50 +32207,50 @@
     </row>
     <row r="3" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B3" s="5">
-        <v>7809</v>
+        <v>4608</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
       </c>
       <c r="D3" s="8">
-        <v>7809</v>
+        <v>4608</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5">
-        <v>8194</v>
+        <v>4777</v>
       </c>
       <c r="C4" s="7">
         <v>0</v>
       </c>
       <c r="D4" s="8">
-        <v>8194</v>
+        <v>4777</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5">
-        <v>9045</v>
+        <v>4976</v>
       </c>
       <c r="C5" s="7">
         <v>0.6</v>
       </c>
       <c r="D5" s="8">
-        <v>3618</v>
+        <v>1990</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>6</v>
@@ -25757,16 +32258,16 @@
     </row>
     <row r="6" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" s="5">
-        <v>10845</v>
+        <v>5333</v>
       </c>
       <c r="C6" s="7">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="D6" s="8">
-        <v>4555</v>
+        <v>5333</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>6</v>
@@ -25774,33 +32275,33 @@
     </row>
     <row r="7" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B7" s="5">
-        <v>12706</v>
+        <v>5415</v>
       </c>
       <c r="C7" s="7">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D7" s="8">
-        <v>7624</v>
+        <v>5415</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B8" s="5">
-        <v>12728</v>
+        <v>5532</v>
       </c>
       <c r="C8" s="7">
-        <v>0.4</v>
+        <v>0.68</v>
       </c>
       <c r="D8" s="8">
-        <v>7637</v>
+        <v>1770</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>6</v>
@@ -25808,16 +32309,16 @@
     </row>
     <row r="9" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5">
-        <v>14002</v>
+        <v>5595</v>
       </c>
       <c r="C9" s="7">
-        <v>0.37</v>
+        <v>0.66</v>
       </c>
       <c r="D9" s="8">
-        <v>8822</v>
+        <v>1902</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>6</v>
@@ -25825,100 +32326,190 @@
     </row>
     <row r="10" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="5">
-        <v>14118</v>
+        <v>5766</v>
       </c>
       <c r="C10" s="7">
-        <v>0.52</v>
+        <v>0.88</v>
       </c>
       <c r="D10" s="8">
-        <v>6777</v>
+        <v>692</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5">
-        <v>15120</v>
+        <v>5855</v>
       </c>
       <c r="C11" s="7">
-        <v>0.57999999999999996</v>
+        <v>0.5</v>
       </c>
       <c r="D11" s="8">
-        <v>6351</v>
+        <v>2928</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5925</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5925</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>6235</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D13" s="8">
+        <v>3741</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6"/>
+      <c r="A14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5">
+        <v>6435</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2703</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="6"/>
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7032</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3375</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="5">
+        <v>7542</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.65</v>
+      </c>
+      <c r="D16" s="8">
+        <v>2640</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="6"/>
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="5">
+        <v>7991</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3356</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>8773</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="D18" s="8">
+        <v>5264</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="6"/>
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5">
+        <v>9117</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.88</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1094</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:5" ht="23" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="6"/>
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5">
+        <v>9487</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.62</v>
+      </c>
+      <c r="D20" s="8">
+        <v>3605</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="23" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -26111,19 +32702,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://nhhealthcost.nh.gov/costs/medical/result/tonsillectomy-with-adenoidectomy-outpatient?carrier=uninsured" xr:uid="{96D56E93-C2F0-E747-BE7F-CF40C18E685B}"/>
-    <hyperlink ref="A2" r:id="rId2" location="costs" display="https://nhhealthcost.nh.gov/provider/elliot-one-day-surgery-center?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{1433CBD1-3254-3B4A-A4B3-5A404EC338D4}"/>
-    <hyperlink ref="A3" r:id="rId3" location="costs" display="https://nhhealthcost.nh.gov/provider/concord-ambulatory-surgery-center?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{6CEF81B0-7C3A-2147-9253-61E672D5D216}"/>
-    <hyperlink ref="A4" r:id="rId4" location="costs" display="https://nhhealthcost.nh.gov/provider/bedford-ambulatory-surgical-center?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{AB3B0E68-A2F4-A44F-AEF3-9DB82497E135}"/>
-    <hyperlink ref="A5" r:id="rId5" location="costs" display="https://nhhealthcost.nh.gov/provider/concord-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{DE0218B3-812C-4C43-B280-3BD2D0040FE7}"/>
-    <hyperlink ref="A6" r:id="rId6" location="costs" display="https://nhhealthcost.nh.gov/provider/exeter-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{56842E68-86A2-4642-B149-D10184742D95}"/>
-    <hyperlink ref="A7" r:id="rId7" location="costs" display="https://nhhealthcost.nh.gov/provider/lakes-region-general-healthcare?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{42626339-33AE-0946-A66B-0E22F2E1BBC3}"/>
-    <hyperlink ref="A8" r:id="rId8" location="costs" display="https://nhhealthcost.nh.gov/provider/wentworth-douglass-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{FC36875D-23E7-CD4C-8E71-96959461819B}"/>
-    <hyperlink ref="A9" r:id="rId9" location="costs" display="https://nhhealthcost.nh.gov/provider/androscoggin-valley-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{7B5D39AA-84BF-0943-B383-312810E89FCA}"/>
-    <hyperlink ref="A10" r:id="rId10" location="costs" display="https://nhhealthcost.nh.gov/provider/elliot-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{04DF5358-4F16-8441-A173-66CBD76F2BF1}"/>
-    <hyperlink ref="A11" r:id="rId11" location="costs" display="https://nhhealthcost.nh.gov/provider/mary-hitchcock-memorial-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{01B71D89-0157-164B-BD41-F10FC5F94A29}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://nhhealthcost.nh.gov/costs/medical/result/upper-gastrointestinal-endoscopy-with-biopsy?carrier=uninsured" xr:uid="{C48214FF-23CB-B547-89FE-993F9FF69DBD}"/>
+    <hyperlink ref="A2" r:id="rId2" location="costs" display="https://nhhealthcost.nh.gov/provider/anna-jaques-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{0CD75AD9-B2D4-6E4C-B1D0-2911094E1DA9}"/>
+    <hyperlink ref="A3" r:id="rId3" location="costs" display="https://nhhealthcost.nh.gov/provider/lowell-general-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{13CC2BF7-DAA1-A44D-9B4A-50F911BFD987}"/>
+    <hyperlink ref="A4" r:id="rId4" location="costs" display="https://nhhealthcost.nh.gov/provider/steward-medical-group?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{29CAD2EA-1251-784D-8EDE-540DA0D51633}"/>
+    <hyperlink ref="A5" r:id="rId5" location="costs" display="https://nhhealthcost.nh.gov/provider/concord-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{A7ECF7FD-03AD-2C43-B47B-B61A81ADFD7D}"/>
+    <hyperlink ref="A6" r:id="rId6" location="costs" display="https://nhhealthcost.nh.gov/provider/veterans-administration-medical-center?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{F667BA4B-7D71-C140-A8A5-1A9E04A4A803}"/>
+    <hyperlink ref="A7" r:id="rId7" location="costs" display="https://nhhealthcost.nh.gov/provider/york-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{EC6D50A9-98A4-BC40-9233-548A0916FC1E}"/>
+    <hyperlink ref="A8" r:id="rId8" location="costs" display="https://nhhealthcost.nh.gov/provider/southern-nh-medical-center?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{CA572EE8-7783-334A-AC4A-2B459EB1337E}"/>
+    <hyperlink ref="A9" r:id="rId9" location="costs" display="https://nhhealthcost.nh.gov/provider/catholic-medical-center?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{F90C537F-3FAC-F947-B4D9-6231E99FF71B}"/>
+    <hyperlink ref="A10" r:id="rId10" location="costs" display="https://nhhealthcost.nh.gov/provider/parkland-medical-center?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{A3D34573-4D57-034D-B70C-46309B7EF5B5}"/>
+    <hyperlink ref="A11" r:id="rId11" location="costs" display="https://nhhealthcost.nh.gov/provider/frisbie-memorial-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{B85806C5-7E96-654B-BF85-C1E17456FFB9}"/>
+    <hyperlink ref="A12" r:id="rId12" location="costs" display="https://nhhealthcost.nh.gov/provider/lawrence-general-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{A6DC5269-DCA9-AA4B-810C-61850891A1F2}"/>
+    <hyperlink ref="A13" r:id="rId13" location="costs" display="https://nhhealthcost.nh.gov/provider/wentworth-douglass-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{B6A5D4FC-8D90-4440-AF7E-64B76D1ACB7B}"/>
+    <hyperlink ref="A14" r:id="rId14" location="costs" display="https://nhhealthcost.nh.gov/provider/exeter-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{8A5B0B08-7096-9048-8284-CA754F9A5BDE}"/>
+    <hyperlink ref="A15" r:id="rId15" location="costs" display="https://nhhealthcost.nh.gov/provider/elliot-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{5CE90A5A-5587-7642-980C-4645AFE1D70B}"/>
+    <hyperlink ref="A16" r:id="rId16" location="costs" display="https://nhhealthcost.nh.gov/provider/cheshire-medical-center?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{40553A9E-1FF2-724A-8865-6AC21D92D968}"/>
+    <hyperlink ref="A17" r:id="rId17" location="costs" display="https://nhhealthcost.nh.gov/provider/mary-hitchcock-memorial-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{EA88AC3F-9868-0141-9C11-43EDF8D3D2E2}"/>
+    <hyperlink ref="A18" r:id="rId18" location="costs" display="https://nhhealthcost.nh.gov/provider/lakes-region-general-healthcare?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{E421207C-3C2A-384D-B540-21AAEE0C6709}"/>
+    <hyperlink ref="A19" r:id="rId19" location="costs" display="https://nhhealthcost.nh.gov/provider/portsmouth-regional-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{B8B60018-50E8-A343-ABB0-8871858FD9D2}"/>
+    <hyperlink ref="A20" r:id="rId20" location="costs" display="https://nhhealthcost.nh.gov/provider/st-joseph-hospital?carrier=uninsured&amp;cost_type=medical - costs" xr:uid="{CEA67B24-3F7F-7B4C-8CBB-06A3BBCE58A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>